--- a/VBA Directory.xlsx
+++ b/VBA Directory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515" activeTab="1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Index!$A$1:$E$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t>Main Topic No.</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>http://www.excelhowto.com/macros/formatting-a-range-of-cells-in-excel-vba/</t>
+  </si>
+  <si>
+    <t>Charts using vba</t>
+  </si>
+  <si>
+    <t>https://analysistabs.com/excel-vba/chart-examples-tutorials/</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +991,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,6 +1588,14 @@
         <v>95</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1591,10 +1605,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AA127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,6 +2938,42 @@
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2964,9 +3014,10 @@
     <hyperlink ref="A118" r:id="rId34"/>
     <hyperlink ref="A121" r:id="rId35"/>
     <hyperlink ref="A124" r:id="rId36"/>
+    <hyperlink ref="A127" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId38"/>
 </worksheet>
 </file>
 
